--- a/data/trans_orig/IP07C11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6211A2F3-42DD-4AAC-96FB-B3946C377694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3DC267-6E8D-4A8A-9D40-6F459D8CAE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C44DD422-F8BB-4FB8-BB26-FF023EABB86A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C12709E2-346D-41E4-8B48-44D314984627}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="392">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>65,7%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
   </si>
   <si>
     <t>56,7%</t>
   </si>
   <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
   </si>
   <si>
     <t>61,06%</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,1117 +106,1114 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>21,99%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2015 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
     <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA43BA-3B2C-435E-9D55-57F03CD404F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE93AE9-7792-404E-8919-8190A7E8D583}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2087,7 +2084,7 @@
         <v>396</v>
       </c>
       <c r="N10" s="7">
-        <v>264206</v>
+        <v>264207</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -2342,7 +2339,7 @@
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407699</v>
+        <v>407700</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>44</v>
@@ -2551,13 +2548,13 @@
         <v>1387</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,7 +2590,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2608,7 +2605,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2673,13 @@
         <v>201401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>265</v>
@@ -2691,13 +2688,13 @@
         <v>178419</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>567</v>
@@ -2706,13 +2703,13 @@
         <v>379820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2724,13 @@
         <v>95899</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>145</v>
@@ -2742,13 +2739,13 @@
         <v>97663</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
@@ -2757,13 +2754,13 @@
         <v>193561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2775,13 @@
         <v>12278</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -2793,13 +2790,13 @@
         <v>11871</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -2808,13 +2805,13 @@
         <v>24150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,7 +2832,7 @@
         <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2844,13 +2841,13 @@
         <v>2693</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2859,13 +2856,13 @@
         <v>2693</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,7 +2883,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2901,7 +2898,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2916,7 +2913,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,7 +2969,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2991,7 +2988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E50F01C-2C0A-485F-AE7F-912C3A135B95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4929C48C-704E-4D51-8A6F-CEDF868002FD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3008,7 +3005,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3115,13 +3112,13 @@
         <v>26815</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -3130,13 +3127,13 @@
         <v>33833</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -3145,13 +3142,13 @@
         <v>60647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3163,13 @@
         <v>17490</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -3181,13 +3178,13 @@
         <v>14796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3196,13 +3193,13 @@
         <v>32286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3214,13 @@
         <v>857</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3232,13 +3229,13 @@
         <v>2997</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3247,13 +3244,13 @@
         <v>3854</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3271,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3304,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3322,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3355,7 +3352,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3420,13 @@
         <v>149210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>180</v>
@@ -3438,13 +3435,13 @@
         <v>126833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>398</v>
@@ -3453,13 +3450,13 @@
         <v>276043</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3471,13 @@
         <v>65483</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -3489,13 +3486,13 @@
         <v>67607</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>193</v>
@@ -3504,13 +3501,13 @@
         <v>133090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3522,13 @@
         <v>9492</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -3540,13 +3537,13 @@
         <v>4700</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -3555,13 +3552,13 @@
         <v>14192</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3573,13 @@
         <v>580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3591,13 +3588,13 @@
         <v>609</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3606,13 +3603,13 @@
         <v>1189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3728,13 @@
         <v>38922</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3746,13 +3743,13 @@
         <v>39206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -3761,13 +3758,13 @@
         <v>78128</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3779,13 @@
         <v>16508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -3797,13 +3794,13 @@
         <v>20880</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -3812,13 +3809,13 @@
         <v>37388</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3830,13 @@
         <v>722</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3848,13 +3845,13 @@
         <v>715</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -3863,13 +3860,13 @@
         <v>1437</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3905,7 +3902,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3920,7 +3917,7 @@
         <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,7 +3938,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3956,7 +3953,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3971,7 +3968,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4036,13 @@
         <v>214946</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>283</v>
@@ -4096,7 +4093,7 @@
         <v>245</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="H23" s="7">
         <v>148</v>
@@ -4105,13 +4102,13 @@
         <v>103282</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
@@ -4123,10 +4120,10 @@
         <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4138,13 @@
         <v>11071</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -4156,10 +4153,10 @@
         <v>8411</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>256</v>
@@ -4213,7 +4210,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4222,13 +4219,13 @@
         <v>1189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4246,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4264,7 +4261,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4279,7 +4276,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,7 +4332,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4354,7 +4351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939144CD-B46F-448D-A3EA-ECB3A00C7DED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836EE78A-F0D2-4F48-9269-9962C6D4AEE6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4371,7 +4368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4478,13 +4475,13 @@
         <v>19860</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -4493,13 +4490,13 @@
         <v>16968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -4508,13 +4505,13 @@
         <v>36828</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4526,13 @@
         <v>14578</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -4544,13 +4541,13 @@
         <v>11124</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4559,13 +4556,13 @@
         <v>25702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4577,13 @@
         <v>2200</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4595,13 +4592,13 @@
         <v>1897</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4610,7 +4607,7 @@
         <v>4097</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>293</v>
@@ -4652,7 +4649,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4667,7 +4664,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4694,13 @@
         <v>617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4712,13 +4709,13 @@
         <v>617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4783,13 @@
         <v>148979</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>222</v>
@@ -4801,13 +4798,13 @@
         <v>155638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -4816,13 +4813,13 @@
         <v>304617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4834,13 @@
         <v>76974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
         <v>104</v>
@@ -4852,13 +4849,13 @@
         <v>72620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>209</v>
@@ -4867,13 +4864,13 @@
         <v>149594</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4885,13 @@
         <v>10351</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -4903,13 +4900,13 @@
         <v>14514</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
@@ -4918,13 +4915,13 @@
         <v>24865</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +4942,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4954,13 +4951,13 @@
         <v>564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4969,13 +4966,13 @@
         <v>1323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5172,13 @@
         <v>41349</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5193,13 @@
         <v>1523</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -5211,13 +5208,13 @@
         <v>3398</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -5226,13 +5223,13 @@
         <v>4922</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,7 +5250,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5262,13 +5259,13 @@
         <v>792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5277,13 +5274,13 @@
         <v>792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,7 +5301,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5319,7 +5316,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5334,7 +5331,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5399,13 @@
         <v>225793</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H22" s="7">
         <v>307</v>
@@ -5417,28 +5414,28 @@
         <v>215180</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>616</v>
       </c>
       <c r="N22" s="7">
-        <v>440973</v>
+        <v>440974</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5450,13 @@
         <v>108576</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H23" s="7">
         <v>153</v>
@@ -5468,13 +5465,13 @@
         <v>108069</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>125</v>
       </c>
       <c r="M23" s="7">
         <v>303</v>
@@ -5483,13 +5480,13 @@
         <v>216645</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5501,13 @@
         <v>14074</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -5519,13 +5516,13 @@
         <v>19809</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>379</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -5534,13 +5531,13 @@
         <v>33884</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5552,13 @@
         <v>759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5570,13 +5567,13 @@
         <v>1356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5585,13 +5582,13 @@
         <v>2115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,7 +5609,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5627,7 +5624,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5636,13 +5633,13 @@
         <v>617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,7 +5681,7 @@
         <v>972</v>
       </c>
       <c r="N27" s="7">
-        <v>694234</v>
+        <v>694235</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>44</v>
@@ -5698,7 +5695,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3DC267-6E8D-4A8A-9D40-6F459D8CAE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26202F02-9AB0-421D-B355-A3A1D5C503AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C12709E2-346D-41E4-8B48-44D314984627}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{A253E9E9-0E1A-4EFE-BFF3-B6275CC7D092}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="395">
   <si>
     <t>Menores según frecuencia de sentirse feliz en casa en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1147 +73,1156 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
     <t>65,7%</t>
   </si>
   <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>61,06%</t>
   </si>
   <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>36,77%</t>
   </si>
   <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse feliz en casa en 2016 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,49%</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE93AE9-7792-404E-8919-8190A7E8D583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05B4963-BCE8-42F9-A849-7F93B98F7462}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1743,10 +1752,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>28399</v>
+        <v>26090</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1758,10 +1767,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7">
-        <v>26090</v>
+        <v>28399</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1794,10 +1803,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>14146</v>
+        <v>18665</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1809,10 +1818,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>18665</v>
+        <v>14146</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1845,10 +1854,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>680</v>
+        <v>1259</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1860,10 +1869,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1259</v>
+        <v>680</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1908,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1923,7 +1932,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1959,7 +1968,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1974,7 +1983,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1998,25 +2007,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -2051,10 +2060,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="D10" s="7">
-        <v>143893</v>
+        <v>120314</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -2066,10 +2075,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="I10" s="7">
-        <v>120314</v>
+        <v>143893</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -2084,7 +2093,7 @@
         <v>396</v>
       </c>
       <c r="N10" s="7">
-        <v>264207</v>
+        <v>264206</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -2102,10 +2111,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>64075</v>
+        <v>60480</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -2117,10 +2126,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I11" s="7">
-        <v>60480</v>
+        <v>64075</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -2153,10 +2162,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>9347</v>
+        <v>8286</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>64</v>
@@ -2168,10 +2177,10 @@
         <v>66</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>8286</v>
+        <v>9347</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>67</v>
@@ -2204,31 +2213,31 @@
         <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1306</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>75</v>
@@ -2267,7 +2276,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2282,7 +2291,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2297,7 +2306,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,25 +2315,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>217314</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>44</v>
@@ -2339,7 +2348,7 @@
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407700</v>
+        <v>407699</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>44</v>
@@ -2353,40 +2362,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7">
+        <v>32015</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="7">
         <v>43</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>29109</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="7">
-        <v>46</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32015</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2395,13 +2404,13 @@
         <v>61125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,31 +2422,31 @@
         <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>17679</v>
+        <v>18518</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>18518</v>
+        <v>17679</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -2446,13 +2455,13 @@
         <v>36197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,31 +2473,31 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>2252</v>
+        <v>2326</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2326</v>
+        <v>2252</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -2497,13 +2506,13 @@
         <v>4578</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,34 +2521,34 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1387</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2548,13 +2557,13 @@
         <v>1387</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,7 +2584,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2590,7 +2599,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2614,25 +2623,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>44</v>
@@ -2667,10 +2676,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="D22" s="7">
-        <v>201401</v>
+        <v>178419</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>114</v>
@@ -2682,10 +2691,10 @@
         <v>116</v>
       </c>
       <c r="H22" s="7">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="I22" s="7">
-        <v>178419</v>
+        <v>201401</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>117</v>
@@ -2718,10 +2727,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="7">
-        <v>95899</v>
+        <v>97663</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>123</v>
@@ -2733,10 +2742,10 @@
         <v>125</v>
       </c>
       <c r="H23" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I23" s="7">
-        <v>97663</v>
+        <v>95899</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>126</v>
@@ -2772,7 +2781,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>12278</v>
+        <v>11871</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>132</v>
@@ -2787,7 +2796,7 @@
         <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>11871</v>
+        <v>12278</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>135</v>
@@ -2796,7 +2805,7 @@
         <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -2805,13 +2814,13 @@
         <v>24150</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,34 +2829,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>2693</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2693</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2856,13 +2865,13 @@
         <v>2693</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2892,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2898,7 +2907,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2913,7 +2922,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,25 +2931,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>309578</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="7">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>44</v>
@@ -2969,7 +2978,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4929C48C-704E-4D51-8A6F-CEDF868002FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A89149-258F-4256-86E8-44028414248A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3005,7 +3014,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3106,34 +3115,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7">
+        <v>33833</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="7">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>26815</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="7">
-        <v>48</v>
-      </c>
-      <c r="I4" s="7">
-        <v>33833</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -3142,13 +3151,13 @@
         <v>60647</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,34 +3166,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14796</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>17490</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14796</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3193,13 +3202,13 @@
         <v>32286</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,34 +3217,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>857</v>
+        <v>2997</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2997</v>
+        <v>857</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3244,10 +3253,10 @@
         <v>3854</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>176</v>
@@ -3271,7 +3280,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3286,7 +3295,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3322,7 +3331,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3337,7 +3346,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3361,25 +3370,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -3414,10 +3423,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="D10" s="7">
-        <v>149210</v>
+        <v>126833</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>179</v>
@@ -3426,22 +3435,22 @@
         <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7">
+        <v>218</v>
+      </c>
+      <c r="I10" s="7">
+        <v>149210</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="7">
-        <v>180</v>
-      </c>
-      <c r="I10" s="7">
-        <v>126833</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>398</v>
@@ -3450,13 +3459,13 @@
         <v>276043</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,34 +3474,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>98</v>
+      </c>
+      <c r="D11" s="7">
+        <v>67607</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="7">
         <v>95</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>65483</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="7">
-        <v>98</v>
-      </c>
-      <c r="I11" s="7">
-        <v>67607</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>193</v>
@@ -3501,13 +3510,13 @@
         <v>133090</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,34 +3525,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="7">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>9492</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4700</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -3552,10 +3561,10 @@
         <v>14192</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>204</v>
@@ -3570,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>205</v>
@@ -3585,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>207</v>
@@ -3594,7 +3603,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3603,13 +3612,13 @@
         <v>1189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,7 +3639,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3645,7 +3654,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3660,7 +3669,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,25 +3678,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199748</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>224765</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>44</v>
@@ -3716,40 +3725,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7">
+        <v>39206</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="7">
         <v>58</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>38922</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="7">
-        <v>55</v>
-      </c>
-      <c r="I16" s="7">
-        <v>39206</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -3758,13 +3767,13 @@
         <v>78128</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,34 +3782,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20880</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="7">
         <v>23</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>16508</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H17" s="7">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7">
-        <v>20880</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -3809,13 +3818,13 @@
         <v>37388</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,31 +3836,31 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -3860,13 +3869,13 @@
         <v>1437</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3896,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3902,7 +3911,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3917,7 +3926,7 @@
         <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,7 +3947,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3953,7 +3962,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3968,7 +3977,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,25 +3986,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="7">
-        <v>85</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>44</v>
@@ -4030,34 +4039,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>283</v>
+      </c>
+      <c r="D22" s="7">
+        <v>199871</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H22" s="7">
         <v>314</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>214946</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="7">
-        <v>283</v>
-      </c>
-      <c r="I22" s="7">
-        <v>199871</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>597</v>
@@ -4066,13 +4075,13 @@
         <v>414817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,34 +4090,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>148</v>
+      </c>
+      <c r="D23" s="7">
+        <v>103282</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H23" s="7">
         <v>143</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>99481</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H23" s="7">
-        <v>148</v>
-      </c>
-      <c r="I23" s="7">
-        <v>103282</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
@@ -4117,13 +4126,13 @@
         <v>202763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,34 +4141,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8411</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="7">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>11071</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H24" s="7">
-        <v>12</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8411</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -4168,7 +4177,7 @@
         <v>19483</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>258</v>
@@ -4186,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>260</v>
@@ -4195,22 +4204,22 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -4219,13 +4228,13 @@
         <v>1189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4255,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4261,7 +4270,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4276,7 +4285,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,25 +4294,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>444</v>
+      </c>
+      <c r="D27" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>326078</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="7">
-        <v>444</v>
-      </c>
-      <c r="I27" s="7">
-        <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>44</v>
@@ -4332,7 +4341,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836EE78A-F0D2-4F48-9269-9962C6D4AEE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709F1F14-56A6-4B94-B372-A5F077FFFF5D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4368,7 +4377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4469,34 +4478,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16968</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="7">
         <v>27</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>19860</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16968</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -4505,13 +4514,13 @@
         <v>36828</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,34 +4529,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11124</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>14578</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="H5" s="7">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11124</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4556,13 +4565,13 @@
         <v>25702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,31 +4583,31 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>2200</v>
+        <v>1897</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1897</v>
+        <v>2200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4607,13 +4616,13 @@
         <v>4097</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,7 +4643,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4649,7 +4658,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4664,7 +4673,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,34 +4682,34 @@
         <v>43</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>617</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4709,13 +4718,13 @@
         <v>617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,25 +4733,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -4777,34 +4786,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>222</v>
+      </c>
+      <c r="D10" s="7">
+        <v>155638</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="7">
         <v>203</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>148979</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="7">
-        <v>222</v>
-      </c>
-      <c r="I10" s="7">
-        <v>155638</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -4813,13 +4822,13 @@
         <v>304617</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,34 +4837,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>104</v>
+      </c>
+      <c r="D11" s="7">
+        <v>72620</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="7">
         <v>105</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>76974</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="7">
-        <v>104</v>
-      </c>
-      <c r="I11" s="7">
-        <v>72620</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>209</v>
@@ -4864,13 +4873,13 @@
         <v>149594</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,34 +4888,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14514</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" s="7">
         <v>15</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>10351</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H12" s="7">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14514</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
@@ -4915,13 +4924,13 @@
         <v>24865</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,31 +4942,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>759</v>
+        <v>564</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>564</v>
+        <v>759</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4966,13 +4975,13 @@
         <v>1323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,7 +5002,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5008,7 +5017,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5023,7 +5032,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,25 +5041,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>348</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243336</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="7">
         <v>324</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237063</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7">
-        <v>348</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243336</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>44</v>
@@ -5079,40 +5088,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7">
+        <v>42575</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H16" s="7">
         <v>79</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>56954</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H16" s="7">
-        <v>61</v>
-      </c>
-      <c r="I16" s="7">
-        <v>42575</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -5121,13 +5130,13 @@
         <v>99529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,34 +5145,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>24325</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H17" s="7">
         <v>24</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>17024</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H17" s="7">
-        <v>33</v>
-      </c>
-      <c r="I17" s="7">
-        <v>24325</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -5172,13 +5181,13 @@
         <v>41349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,34 +5196,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3398</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1523</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3398</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -5223,13 +5232,13 @@
         <v>4922</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,34 +5247,34 @@
         <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>792</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5274,13 +5283,13 @@
         <v>792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,7 +5310,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5316,7 +5325,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5331,7 +5340,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,25 +5349,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>44</v>
@@ -5393,34 +5402,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>307</v>
+      </c>
+      <c r="D22" s="7">
+        <v>215180</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H22" s="7">
         <v>309</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>225793</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H22" s="7">
-        <v>307</v>
-      </c>
-      <c r="I22" s="7">
-        <v>215180</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
         <v>616</v>
@@ -5429,13 +5438,13 @@
         <v>440974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,34 +5453,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>153</v>
+      </c>
+      <c r="D23" s="7">
+        <v>108069</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H23" s="7">
         <v>150</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>108576</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H23" s="7">
-        <v>153</v>
-      </c>
-      <c r="I23" s="7">
-        <v>108069</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>303</v>
@@ -5480,13 +5489,13 @@
         <v>216645</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,34 +5504,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19809</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H24" s="7">
         <v>20</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>14074</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H24" s="7">
-        <v>29</v>
-      </c>
-      <c r="I24" s="7">
-        <v>19809</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>379</v>
+        <v>200</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -5531,13 +5540,13 @@
         <v>33884</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,34 +5555,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1356</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>759</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1356</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5582,13 +5591,13 @@
         <v>2115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,34 +5606,34 @@
         <v>43</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>617</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5633,13 +5642,13 @@
         <v>617</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,25 +5657,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>492</v>
+      </c>
+      <c r="D27" s="7">
+        <v>345032</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>349203</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="7">
-        <v>492</v>
-      </c>
-      <c r="I27" s="7">
-        <v>345032</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>44</v>
@@ -5695,7 +5704,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
